--- a/medicine/Psychotrope/Sex_on_the_beach/Sex_on_the_beach.xlsx
+++ b/medicine/Psychotrope/Sex_on_the_beach/Sex_on_the_beach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Sex on the Beach est un cocktail alcoolisé contenant de la vodka, du Schnaps à la pêche, du jus d'orange et du jus de canneberge. Il s'agit d'un cocktail officiel de l'Association internationale des barmen[1].
+Le Sex on the Beach est un cocktail alcoolisé contenant de la vodka, du Schnaps à la pêche, du jus d'orange et du jus de canneberge. Il s'agit d'un cocktail officiel de l'Association internationale des barmen.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Variations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Quelques cocktails portent un nom différent et sont une variante du Sex on the Beach : 
-Sex in the Driveway est un cocktail où le jus d'orange et le jus de canneberge sont remplacés par du Sprite et du Curaçao[2].
-Woo Woo est un cocktail reprenant les ingrédients du Sex on the Beach, sans le jus d'orange[3].
-Les variants sans alcool sont souvent appelées Safe sex on the Beach, Cuddle on the Beach ou Virgin on the Beach[4].</t>
+Sex in the Driveway est un cocktail où le jus d'orange et le jus de canneberge sont remplacés par du Sprite et du Curaçao.
+Woo Woo est un cocktail reprenant les ingrédients du Sex on the Beach, sans le jus d'orange.
+Les variants sans alcool sont souvent appelées Safe sex on the Beach, Cuddle on the Beach ou Virgin on the Beach.</t>
         </is>
       </c>
     </row>
